--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1453,7 +1453,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4B/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-condition.xlsx
+++ b/StructureDefinition-ncpi-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
